--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\prog\Academia-top-traning-rep\Academia-top-traning-rep\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BAE9F6-EAC6-4374-B1DC-929CD211EE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B058119-B575-486A-99AE-6EE301E69665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
   <si>
     <t>Теги HTML</t>
   </si>
@@ -303,6 +303,33 @@
   </si>
   <si>
     <t>является контейнером, который заключает в себе все содержимое веб-страницы, включая теги &lt;head&gt; и &lt;body&gt;</t>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>   width</t>
+  </si>
+  <si>
+    <t>min-width</t>
+  </si>
+  <si>
+    <t>max-width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>min-height</t>
+  </si>
+  <si>
+    <t>max-height</t>
   </si>
 </sst>
 </file>
@@ -433,12 +460,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,6 +468,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -589,8 +616,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:H8" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:H17" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{14F7D31A-E062-4107-AACB-707AFB69580E}" name="Свойство" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FCE101DA-F2E4-4397-8AF3-BBC029B167CB}" name="Значение по умолчанию" dataDxfId="6"/>
@@ -870,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -884,13 +911,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1203,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0BF79F-7BF8-4D1C-BDD5-B509EB889F1F}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,16 +1249,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1283,129 +1310,237 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="10" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\prog\Academia-top-traning-rep\Academia-top-traning-rep\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B058119-B575-486A-99AE-6EE301E69665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C6484E-2047-4C55-8F26-AC5A819DF86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="4485" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
   <si>
     <t>Теги HTML</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>max-height</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>display</t>
   </si>
 </sst>
 </file>
@@ -616,8 +622,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:H17" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:H19" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{14F7D31A-E062-4107-AACB-707AFB69580E}" name="Свойство" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FCE101DA-F2E4-4397-8AF3-BBC029B167CB}" name="Значение по умолчанию" dataDxfId="6"/>
@@ -1230,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0BF79F-7BF8-4D1C-BDD5-B509EB889F1F}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,6 +1548,30 @@
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>

--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\prog\Academia-top-traning-rep\Academia-top-traning-rep\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C6484E-2047-4C55-8F26-AC5A819DF86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B626131-21B0-4F33-A77B-AD4B6D24EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="4485" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
   <si>
     <t>Теги HTML</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">font-size: 11pt; /* Размер шрифта в пунктах */ </t>
-  </si>
-  <si>
-    <t>Устанавливает насыщенность шрифта</t>
   </si>
   <si>
     <t xml:space="preserve">	normal, 400</t>
@@ -336,6 +333,125 @@
   </si>
   <si>
     <t>display</t>
+  </si>
+  <si>
+    <t>border-radius</t>
+  </si>
+  <si>
+    <t>outline</t>
+  </si>
+  <si>
+    <t>box-shadow</t>
+  </si>
+  <si>
+    <t>text-shadow</t>
+  </si>
+  <si>
+    <t>opacity</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>Универсальное свойство border позволяет одновременно установить толщину, 
+стиль и цвет границы вокруг элемента.</t>
+  </si>
+  <si>
+    <t>border: 1px solid #000; (размер стиль цвет)</t>
+  </si>
+  <si>
+    <t>solid dotted dashed</t>
+  </si>
+  <si>
+    <t>Устанавливает радиус скругления уголков блока. border-radius:50%; - кргуг Можно использовать вместе с overflow: hidden;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Универсальное свойство, одновременно устанавливающее цвет, 
+стиль и толщину внешней границы на всех четырех сторонах элемента. 
+В отличие от линии, задаваемой через border, свойство outline 
+не влияет на положение блока и его ширину. </t>
+  </si>
+  <si>
+    <t>Добавляет тень к элементу.</t>
+  </si>
+  <si>
+    <t>сдвиг_по_гориз сдвиг_по_верт радиус расстояние</t>
+  </si>
+  <si>
+    <t>Определяет уровень прозрачности элемента.</t>
+  </si>
+  <si>
+    <t>Предназначен для отображения или скрытия элемента.</t>
+  </si>
+  <si>
+    <t>box-sizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Применяется для изменения алгоритма расчета ширины и высоты элемента. </t>
+  </si>
+  <si>
+    <t>content-box</t>
+  </si>
+  <si>
+    <t>content-box, border-box, padding-box</t>
+  </si>
+  <si>
+    <t>Внутренний отступ элемента
+При указании поля в процентах, значение считается от ширины родителя элемента.</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Внешний отступ элемента
+При указании поля в процентах, значение считается от ширины родителя элемента.
+Значение может быть как положительным, так и отрицательным числом.</t>
+  </si>
+  <si>
+    <t>Устанавливает ширину блочных тегов и некоторыйх строчных (например img)</t>
+  </si>
+  <si>
+    <t>width:100px;
+width:10%;</t>
+  </si>
+  <si>
+    <t>Устанавливает максимальную ширину блочных тегов и некоторыйх строчных (например img)</t>
+  </si>
+  <si>
+    <t>Устанавливает минимальную ширину блочных тегов и некоторыйх строчных (например img)</t>
+  </si>
+  <si>
+    <t>Устанавливает высоту блочных тегов и некоторыйх строчных (например img)</t>
+  </si>
+  <si>
+    <t>Устанавливает минимальную высоту блочных тегов и некоторыйх строчных (например img)</t>
+  </si>
+  <si>
+    <t>Устанавливает максимальную высоту блочных тегов и некоторыйх строчных (например img)</t>
+  </si>
+  <si>
+    <t>Управляет отображением содержания блочного элемента</t>
+  </si>
+  <si>
+    <t>visible - Отображается все содержание элемента, даже за пределами установленной высоты и ширины. 
+hidden - Отображается только область внутри элемента, остальное будет скрыто.
+scroll - Всегда добавляются полосы прокрутки.
+auto - Полосы прокрутки добавляются только при необходимости.</t>
+  </si>
+  <si>
+    <t>Многоцелевое свойство, которое определяет, как элемент должен быть показан в документе.</t>
+  </si>
+  <si>
+    <t>block  
+inline	
+inline - block 
+none</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -440,7 +556,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,6 +590,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,8 +741,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:H19" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:H27" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{14F7D31A-E062-4107-AACB-707AFB69580E}" name="Свойство" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FCE101DA-F2E4-4397-8AF3-BBC029B167CB}" name="Значение по умолчанию" dataDxfId="6"/>
@@ -634,7 +753,7 @@
     <tableColumn id="7" xr3:uid="{E2B8EC58-2C0A-431A-A3A1-7F31786522C1}" name="Значение" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{00231192-9ECB-4489-A003-17062259FCC9}" name="Пример" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -917,13 +1036,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -966,7 +1085,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="7"/>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -978,10 +1097,10 @@
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1002,13 +1121,13 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1019,10 +1138,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -1034,10 +1153,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -1047,10 +1166,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1060,10 +1179,10 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1074,7 +1193,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1236,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0BF79F-7BF8-4D1C-BDD5-B509EB889F1F}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,23 +1367,23 @@
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="91.42578125" customWidth="1"/>
+    <col min="5" max="5" width="92.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="7" max="7" width="97.140625" customWidth="1"/>
     <col min="8" max="8" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1373,7 +1492,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>46</v>
@@ -1382,14 +1501,14 @@
         <v>47</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1397,7 +1516,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>46</v>
@@ -1406,14 +1525,14 @@
         <v>47</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1421,7 +1540,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>46</v>
@@ -1430,19 +1549,19 @@
         <v>47</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>92</v>
+      <c r="A9" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1452,125 +1571,287 @@
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\prog\Academia-top-traning-rep\Academia-top-traning-rep\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B626131-21B0-4F33-A77B-AD4B6D24EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE853D2-D6BA-40BD-A53F-E0085D343F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
     <sheet name="CSS" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="152">
   <si>
     <t>Теги HTML</t>
   </si>
@@ -452,6 +453,52 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>:hover</t>
+  </si>
+  <si>
+    <t>:active</t>
+  </si>
+  <si>
+    <t>:visited</t>
+  </si>
+  <si>
+    <t>:focus</t>
+  </si>
+  <si>
+    <t>:first-child</t>
+  </si>
+  <si>
+    <t>:last-child</t>
+  </si>
+  <si>
+    <t>:nth-child</t>
+  </si>
+  <si>
+    <t>odd - Обращается к элементам с нечётными номерами
+even - Обращается к элементам с чётными номерами</t>
+  </si>
+  <si>
+    <t>Срабатывает при наведении на элемент</t>
+  </si>
+  <si>
+    <t>Срабатывает при нажатии на элемент</t>
+  </si>
+  <si>
+    <t>Срабатывает при получении элементом фокуса</t>
+  </si>
+  <si>
+    <t>Обращение к первому элементу в блоке</t>
+  </si>
+  <si>
+    <t>Обращение к последнему элементу в блоке</t>
+  </si>
+  <si>
+    <t>Обращение к конкретным элементам в блоке</t>
+  </si>
+  <si>
+    <t>:nth-child(порядковый номер элемента)</t>
   </si>
 </sst>
 </file>
@@ -741,8 +788,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:H27" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:H34" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{14F7D31A-E062-4107-AACB-707AFB69580E}" name="Свойство" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FCE101DA-F2E4-4397-8AF3-BBC029B167CB}" name="Значение по умолчанию" dataDxfId="6"/>
@@ -1355,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0BF79F-7BF8-4D1C-BDD5-B509EB889F1F}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,6 +1900,108 @@
       <c r="G27" s="3"/>
       <c r="H27" s="2"/>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -1863,4 +2012,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3441421B-AC7E-49FA-8DE6-D1C8CE0D8C9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\prog\Academia-top-traning-rep\Academia-top-traning-rep\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE853D2-D6BA-40BD-A53F-E0085D343F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB6DC74-6772-4FB0-BD42-3703A529C3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="161">
   <si>
     <t>Теги HTML</t>
   </si>
@@ -499,6 +499,33 @@
   </si>
   <si>
     <t>:nth-child(порядковый номер элемента)</t>
+  </si>
+  <si>
+    <t>:first-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">задает стиль первой строки форматированного текста. </t>
+  </si>
+  <si>
+    <t>:first-letter</t>
+  </si>
+  <si>
+    <t>определяет стиль первого символа в тексте элемента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:before </t>
+  </si>
+  <si>
+    <t>применяется для отображения желаемого контента до содержимого элемента</t>
+  </si>
+  <si>
+    <t>:after</t>
+  </si>
+  <si>
+    <t>для вывода желаемого текста после содержимого элемента</t>
+  </si>
+  <si>
+    <t>работает совместно со свойством content</t>
   </si>
 </sst>
 </file>
@@ -788,8 +815,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:H34" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}" name="Таблица2" displayName="Таблица2" ref="A2:H38" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:H38" xr:uid="{929970CB-924C-4183-95F8-FB3F455843CF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{14F7D31A-E062-4107-AACB-707AFB69580E}" name="Свойство" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{FCE101DA-F2E4-4397-8AF3-BBC029B167CB}" name="Значение по умолчанию" dataDxfId="6"/>
@@ -1402,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0BF79F-7BF8-4D1C-BDD5-B509EB889F1F}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,6 +2028,66 @@
         <v>144</v>
       </c>
       <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
